--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -19,113 +19,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="27">
-  <si>
-    <t>函数类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝图(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个int32参数1个in32返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个int32参数1个in32返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个int32参数1个in32返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个int32参数1个in32返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5个int32参数1个in32返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0参数0返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个FString参数1个FString返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个FString参数1个FString返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个FString参数1个FString返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个FString参数1个FString返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5个FString参数1个FString返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个FVector参数1个FVector返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个FVector参数1个FVector返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个FVector参数1个FVector返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个FVector参数1个FVector返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5个FVector参数1个FVector返回值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合参数(int32 float FString FVector FRotator FTransform UObject)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++调用脚本函数(BlueprintImplementableEvent) 1000000次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本调用C++函数(BlueprintCallable) 1000000次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="28">
   <si>
     <t>Xeon E5-1650, 32G</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>小米Pad3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米6</t>
+    <t>Function Signature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueprint(s)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua(s)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mi 6(Snapdragon 835 processor, 6GB RAM)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mi Pad3(MTK MT8176, 4GB RAM)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Func(FString)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 Func(int32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Func()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 Func(int32, int32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 Func(int32, int32, int32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 Func(int32, int32, int32, int32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 Func(int32, int32, int32, int32, int32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Func(FString, FString)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Func(FString, FString, FString)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Func(FString, FString, FString, FString)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Func(FString, FString, FString, FString, FString)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVector Func(FVector)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVector Func(FVector, FVector)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVector Func(FVector, FVector, FVector)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVector Func(FVector, FVector, FVector, FVector)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVector Func(FVector, FVector, FVector, FVector, FVector)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 Func(int32, float, FString, FVector, FRotator, FTransform, UObject)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call BlueprintCallable function from script 1,000,000 times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call BlueprintCallable function from script 1,000,000 times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call BlueprintImplementableEvent from C++ 1,000,000 times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call BlueprintImplementableEvent from C++ 1,000,000 times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call BlueprintImplementableEvent from C++ 1,000,000 times</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -279,13 +283,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -296,6 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -581,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,99 +606,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>2</v>
+      <c r="K6" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -736,7 +743,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.16600000000000001</v>
@@ -745,7 +752,7 @@
         <v>0.64900000000000002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3">
         <v>0.39100000000000001</v>
@@ -754,7 +761,7 @@
         <v>2.1579999999999999</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J9" s="3">
         <v>0.34200000000000003</v>
@@ -765,7 +772,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>0.16</v>
@@ -774,7 +781,7 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3">
         <v>0.376</v>
@@ -783,7 +790,7 @@
         <v>2.254</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J10" s="3">
         <v>0.33800000000000002</v>
@@ -794,7 +801,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>0.17100000000000001</v>
@@ -803,7 +810,7 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3">
         <v>0.39300000000000002</v>
@@ -812,7 +819,7 @@
         <v>2.4060000000000001</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11" s="3">
         <v>0.34899999999999998</v>
@@ -823,7 +830,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>0.20200000000000001</v>
@@ -832,7 +839,7 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3">
         <v>0.39900000000000002</v>
@@ -841,7 +848,7 @@
         <v>2.64</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J12" s="3">
         <v>0.35499999999999998</v>
@@ -852,7 +859,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>0.22800000000000001</v>
@@ -861,7 +868,7 @@
         <v>0.89</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3">
         <v>0.40600000000000003</v>
@@ -870,7 +877,7 @@
         <v>2.5979999999999999</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J13" s="3">
         <v>0.36</v>
@@ -892,7 +899,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3">
         <v>0.23300000000000001</v>
@@ -901,7 +908,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
         <v>1.0920000000000001</v>
@@ -910,7 +917,7 @@
         <v>3.46</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
         <v>0.88</v>
@@ -921,7 +928,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>0.315</v>
@@ -930,7 +937,7 @@
         <v>1.171</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3">
         <v>1.4550000000000001</v>
@@ -939,7 +946,7 @@
         <v>4.3330000000000002</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J16" s="3">
         <v>1.1419999999999999</v>
@@ -950,7 +957,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>0.33900000000000002</v>
@@ -959,7 +966,7 @@
         <v>1.3220000000000001</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3">
         <v>1.8759999999999999</v>
@@ -968,7 +975,7 @@
         <v>5.3369999999999997</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J17" s="3">
         <v>1.3919999999999999</v>
@@ -979,7 +986,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>0.28599999999999998</v>
@@ -988,7 +995,7 @@
         <v>1.3620000000000001</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3">
         <v>2.2410000000000001</v>
@@ -997,7 +1004,7 @@
         <v>6.23</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3">
         <v>1.643</v>
@@ -1008,7 +1015,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>0.40699999999999997</v>
@@ -1017,7 +1024,7 @@
         <v>1.708</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3">
         <v>2.6040000000000001</v>
@@ -1026,7 +1033,7 @@
         <v>7.1260000000000003</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J19" s="3">
         <v>1.9019999999999999</v>
@@ -1048,7 +1055,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
         <v>0.157</v>
@@ -1057,7 +1064,7 @@
         <v>1.103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F21" s="3">
         <v>0.39800000000000002</v>
@@ -1066,7 +1073,7 @@
         <v>3.931</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J21" s="3">
         <v>0.34699999999999998</v>
@@ -1077,7 +1084,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3">
         <v>0.20599999999999999</v>
@@ -1086,7 +1093,7 @@
         <v>1.3560000000000001</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3">
         <v>0.443</v>
@@ -1095,7 +1102,7 @@
         <v>4.0129999999999999</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J22" s="3">
         <v>0.373</v>
@@ -1106,7 +1113,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3">
         <v>0.16800000000000001</v>
@@ -1115,7 +1122,7 @@
         <v>1.319</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F23" s="3">
         <v>0.47599999999999998</v>
@@ -1124,7 +1131,7 @@
         <v>4.2939999999999996</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J23" s="3">
         <v>0.40400000000000003</v>
@@ -1135,7 +1142,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3">
         <v>0.17199999999999999</v>
@@ -1144,7 +1151,7 @@
         <v>1.5349999999999999</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3">
         <v>0.50800000000000001</v>
@@ -1153,7 +1160,7 @@
         <v>4.5090000000000003</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J24" s="3">
         <v>0.432</v>
@@ -1164,7 +1171,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3">
         <v>0.17599999999999999</v>
@@ -1173,7 +1180,7 @@
         <v>1.4610000000000001</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F25" s="3">
         <v>0.51300000000000001</v>
@@ -1182,7 +1189,7 @@
         <v>4.7489999999999997</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J25" s="3">
         <v>0.45400000000000001</v>
@@ -1204,7 +1211,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
         <v>0.23300000000000001</v>
@@ -1213,7 +1220,7 @@
         <v>1.3680000000000001</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="3">
         <v>0.88800000000000001</v>
@@ -1222,7 +1229,7 @@
         <v>4.66</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J27" s="3">
         <v>0.755</v>
@@ -1232,71 +1239,71 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="I30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="A30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="I30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="B31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="G31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="J31" s="5" t="s">
         <v>2</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1335,13 +1342,13 @@
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B34" s="3">
         <v>6.4000000000000001E-2</v>
@@ -1350,7 +1357,7 @@
         <v>0.69899999999999995</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F34" s="3">
         <v>0.221</v>
@@ -1359,7 +1366,7 @@
         <v>2.5870000000000002</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J34" s="3">
         <v>0.183</v>
@@ -1370,7 +1377,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B35" s="3">
         <v>0.10299999999999999</v>
@@ -1379,7 +1386,7 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F35" s="3">
         <v>0.22600000000000001</v>
@@ -1388,7 +1395,7 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J35" s="3">
         <v>0.186</v>
@@ -1399,7 +1406,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B36" s="3">
         <v>8.5999999999999993E-2</v>
@@ -1408,7 +1415,7 @@
         <v>0.72</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3">
         <v>0.23200000000000001</v>
@@ -1417,7 +1424,7 @@
         <v>2.6440000000000001</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J36" s="3">
         <v>0.19600000000000001</v>
@@ -1428,7 +1435,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B37" s="3">
         <v>9.7000000000000003E-2</v>
@@ -1437,7 +1444,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3">
         <v>0.251</v>
@@ -1446,7 +1453,7 @@
         <v>2.7080000000000002</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J37" s="3">
         <v>0.19900000000000001</v>
@@ -1457,7 +1464,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3">
         <v>7.1999999999999995E-2</v>
@@ -1466,7 +1473,7 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F38" s="3">
         <v>0.23699999999999999</v>
@@ -1475,7 +1482,7 @@
         <v>2.794</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J38" s="3">
         <v>0.2</v>
@@ -1488,16 +1495,16 @@
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B40" s="3">
         <v>0.17799999999999999</v>
@@ -1506,7 +1513,7 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F40" s="3">
         <v>1.504</v>
@@ -1515,7 +1522,7 @@
         <v>4.3490000000000002</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J40" s="3">
         <v>1.1930000000000001</v>
@@ -1526,7 +1533,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B41" s="3">
         <v>0.246</v>
@@ -1535,7 +1542,7 @@
         <v>1.079</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F41" s="3">
         <v>2.2690000000000001</v>
@@ -1544,7 +1551,7 @@
         <v>5.125</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J41" s="3">
         <v>1.68</v>
@@ -1555,7 +1562,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B42" s="3">
         <v>0.33100000000000002</v>
@@ -1564,7 +1571,7 @@
         <v>1.2130000000000001</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F42" s="3">
         <v>2.859</v>
@@ -1573,7 +1580,7 @@
         <v>6.0410000000000004</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J42" s="3">
         <v>2.169</v>
@@ -1584,7 +1591,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B43" s="3">
         <v>0.36399999999999999</v>
@@ -1593,7 +1600,7 @@
         <v>1.3580000000000001</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F43" s="3">
         <v>3.5649999999999999</v>
@@ -1602,7 +1609,7 @@
         <v>6.8179999999999996</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J43" s="3">
         <v>2.6850000000000001</v>
@@ -1613,7 +1620,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3">
         <v>0.435</v>
@@ -1622,7 +1629,7 @@
         <v>1.3420000000000001</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F44" s="3">
         <v>4.327</v>
@@ -1631,7 +1638,7 @@
         <v>7.5039999999999996</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J44" s="3">
         <v>3.17</v>
@@ -1644,16 +1651,16 @@
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B46" s="3">
         <v>6.8000000000000005E-2</v>
@@ -1662,7 +1669,7 @@
         <v>1.113</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F46" s="3">
         <v>0.26100000000000001</v>
@@ -1671,7 +1678,7 @@
         <v>3.9249999999999998</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J46" s="3">
         <v>0.19900000000000001</v>
@@ -1682,7 +1689,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B47" s="3">
         <v>7.2999999999999995E-2</v>
@@ -1691,7 +1698,7 @@
         <v>1.4910000000000001</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3">
         <v>0.247</v>
@@ -1700,7 +1707,7 @@
         <v>4.4340000000000002</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J47" s="3">
         <v>0.20499999999999999</v>
@@ -1711,7 +1718,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B48" s="3">
         <v>8.3000000000000004E-2</v>
@@ -1720,7 +1727,7 @@
         <v>1.8520000000000001</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F48" s="3">
         <v>0.253</v>
@@ -1729,7 +1736,7 @@
         <v>6.0220000000000002</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J48" s="3">
         <v>0.215</v>
@@ -1740,7 +1747,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B49" s="3">
         <v>0.08</v>
@@ -1749,7 +1756,7 @@
         <v>2.1760000000000002</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F49" s="3">
         <v>0.26500000000000001</v>
@@ -1758,7 +1765,7 @@
         <v>7.2750000000000004</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J49" s="3">
         <v>0.223</v>
@@ -1769,7 +1776,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B50" s="3">
         <v>9.2999999999999999E-2</v>
@@ -1778,7 +1785,7 @@
         <v>2.7829999999999999</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F50" s="3">
         <v>0.27400000000000002</v>
@@ -1787,7 +1794,7 @@
         <v>12.334</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J50" s="3">
         <v>0.23400000000000001</v>
@@ -1800,16 +1807,16 @@
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B52" s="3">
         <v>0.40400000000000003</v>
@@ -1818,7 +1825,7 @@
         <v>1.615</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F52" s="3">
         <v>1.704</v>
@@ -1827,7 +1834,7 @@
         <v>7.7060000000000004</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J52" s="3">
         <v>1.339</v>
@@ -1838,6 +1845,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="E1:G4"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="A28:C29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="I28:K29"/>
+    <mergeCell ref="I1:K4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="I45:K45"/>
     <mergeCell ref="I51:K51"/>
     <mergeCell ref="A5:C5"/>
@@ -1854,26 +1881,6 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="E1:G4"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="A28:C29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="I28:K29"/>
-    <mergeCell ref="I1:K4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="E39:G39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
